--- a/storage/МРП - Тестовые файлы/тест множественная строка2.xlsx
+++ b/storage/МРП - Тестовые файлы/тест множественная строка2.xlsx
@@ -31,11 +31,11 @@
     <r>
       <rPr>
         <sz val="15"/>
-        <color rgb="FF62C47C"/>
+        <color rgb="FFCEC86F"/>
         <rFont val="Fira Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">567</t>
+      <t xml:space="preserve">vdfb 546</t>
     </r>
     <r>
       <rPr>
@@ -49,29 +49,11 @@
     <r>
       <rPr>
         <sz val="15"/>
-        <color rgb="FF62C47C"/>
+        <color rgb="FFCEC86F"/>
         <rFont val="Fira Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">11.23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFA0B2C8"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF62C47C"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">55</t>
+      <t xml:space="preserve">выапап 54</t>
     </r>
   </si>
 </sst>
@@ -122,7 +104,7 @@
     </font>
     <font>
       <sz val="15"/>
-      <color rgb="FF62C47C"/>
+      <color rgb="FFCEC86F"/>
       <name val="Fira Code"/>
       <family val="3"/>
     </font>
@@ -249,9 +231,9 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFCEC86F"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF62C47C"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -279,7 +261,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
